--- a/SSI - SOFTWARE EDUCATIVO/Evaluacion SSI/Avances.xlsx
+++ b/SSI - SOFTWARE EDUCATIVO/Evaluacion SSI/Avances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zayda\Dropbox\SSI - SOFTWARE EDUCATIVO\Evaluacion SSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia\Dropbox\SSI - SOFTWARE EDUCATIVO\Evaluacion SSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +567,9 @@
         <f t="shared" ref="F4:F8" si="0">+SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="G4" s="6">
+        <v>41766</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -585,6 +588,9 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999998</v>
       </c>
+      <c r="G5" s="6">
+        <v>41766</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -680,7 +686,7 @@
       </c>
       <c r="G10" s="7">
         <f>MIN(G4:G9)</f>
-        <v>0</v>
+        <v>41766</v>
       </c>
       <c r="H10" s="7">
         <f>MAX(H4:H9)</f>

--- a/SSI - SOFTWARE EDUCATIVO/Evaluacion SSI/Avances.xlsx
+++ b/SSI - SOFTWARE EDUCATIVO/Evaluacion SSI/Avances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia\Dropbox\SSI - SOFTWARE EDUCATIVO\Evaluacion SSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjcarias8\Dropbox\SSI - SOFTWARE EDUCATIVO\Evaluacion SSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,17 +555,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F8" si="0">+SUM(C4:E4)/COUNT(C4:E4)</f>
-        <v>0.16666666666666666</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G4" s="6">
         <v>41766</v>
@@ -576,17 +576,17 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.19999999999999998</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G5" s="6">
         <v>41766</v>
@@ -597,17 +597,17 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0.19999999999999998</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -615,17 +615,17 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -633,17 +633,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0.19999999999999998</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -651,17 +651,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="5">
         <f>+SUM(C9:E9)/COUNT(C9:E9)</f>
-        <v>0</v>
+        <v>0.68333333333333324</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -670,19 +670,19 @@
       </c>
       <c r="C10" s="5">
         <f>+SUM(C4:C9)/COUNT(C4:C9)</f>
-        <v>0.46666666666666673</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="D10" s="5">
         <f>+SUM(D4:D9)/COUNT(D4:D9)</f>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E10" s="5">
         <f>+SUM(E4:E9)/COUNT(E4:E9)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="5">
         <f>+SUM(F4:F9)/COUNT(F4:F9)</f>
-        <v>0.15555555555555553</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G10" s="7">
         <f>MIN(G4:G9)</f>
@@ -732,17 +732,17 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F18" si="1">+SUM(C13:E13)/COUNT(C13:E13)</f>
-        <v>0.43333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G13" s="6">
         <v>41777</v>
@@ -759,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G14" s="6">
         <v>41777</v>
@@ -780,17 +780,17 @@
         <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0.43333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G15" s="6">
         <v>41777</v>
@@ -807,14 +807,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G16" s="6">
         <v>41777</v>
@@ -831,14 +831,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G17" s="6">
         <v>41777</v>
@@ -855,14 +855,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G18" s="6">
         <v>41777</v>
@@ -877,11 +877,11 @@
       </c>
       <c r="C19" s="5">
         <f>+SUM(C13:C18)/COUNT(C13:C18)</f>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
         <f>+SUM(D13:D18)/COUNT(D13:D18)</f>
-        <v>0.58333333333333337</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="5">
         <f>+SUM(E13:E18)/COUNT(E13:E18)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="F19" s="5">
         <f>+SUM(F13:F18)/COUNT(F13:F18)</f>
-        <v>0.50555555555555554</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G19" s="7">
         <f>MIN(G13:G18)</f>
@@ -942,14 +942,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ref="F22:F24" si="2">+SUM(C22:E22)/COUNT(C22:E22)</f>
-        <v>0.76666666666666661</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G22" s="6">
         <v>41777</v>
@@ -963,17 +963,17 @@
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>0.6333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G23" s="6">
         <v>41777</v>
@@ -987,17 +987,17 @@
         <v>24</v>
       </c>
       <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.8</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.4</v>
-      </c>
       <c r="E24" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>0.53333333333333333</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G24" s="6">
         <v>41777</v>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C25" s="5">
         <f>+SUM(C22:C24)/COUNT(C22:C24)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5">
         <f>+SUM(D22:D24)/COUNT(D22:D24)</f>
-        <v>0.6333333333333333</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="E25" s="5">
         <f>+SUM(E22:E24)/COUNT(E22:E24)</f>
-        <v>0.40000000000000008</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="5">
         <f>+SUM(F22:F24)/COUNT(F22:F24)</f>
-        <v>0.64444444444444438</v>
+        <v>0.81111111111111123</v>
       </c>
       <c r="G25" s="7">
         <f>MIN(G22:G24)</f>
@@ -1074,17 +1074,17 @@
         <v>25</v>
       </c>
       <c r="C28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F30" si="3">+SUM(C28:E28)/COUNT(C28:E28)</f>
-        <v>0.33333333333333331</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G28" s="8">
         <v>41780</v>
@@ -1104,11 +1104,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G29" s="6">
         <v>41777</v>
@@ -1128,11 +1128,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G30" s="6">
         <v>41777</v>
@@ -1147,19 +1147,19 @@
       </c>
       <c r="C31" s="5">
         <f>+SUM(C28:C30)/COUNT(C28:C30)</f>
-        <v>0.83333333333333337</v>
+        <v>0.9</v>
       </c>
       <c r="D31" s="5">
         <f>+SUM(D28:D30)/COUNT(D28:D30)</f>
-        <v>0.83333333333333337</v>
+        <v>0.9</v>
       </c>
       <c r="E31" s="5">
         <f>+SUM(E28:E30)/COUNT(E28:E30)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="5">
         <f>+SUM(F28:F30)/COUNT(F28:F30)</f>
-        <v>0.55555555555555547</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G31" s="7">
         <f>MIN(G28:G30)</f>
@@ -1215,11 +1215,11 @@
         <v>0.8</v>
       </c>
       <c r="E34" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ref="F34:F40" si="4">+SUM(C34:E34)/COUNT(C34:E34)</f>
-        <v>0.6333333333333333</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G34" s="6">
         <v>41777</v>
@@ -1239,11 +1239,11 @@
         <v>0.8</v>
       </c>
       <c r="E35" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="4"/>
-        <v>0.6333333333333333</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G35" s="6">
         <v>41777</v>
@@ -1263,11 +1263,11 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="4"/>
-        <v>0.6333333333333333</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G36" s="6">
         <v>41777</v>
@@ -1287,11 +1287,11 @@
         <v>0.8</v>
       </c>
       <c r="E37" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="3">
         <f>+SUM(C37:E37)/COUNT(C37:E37)</f>
-        <v>0.6166666666666667</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G37" s="6">
         <v>41777</v>
@@ -1323,17 +1323,17 @@
         <v>29</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1362,14 +1362,14 @@
         <v>0.85</v>
       </c>
       <c r="D41" s="1">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E41" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="3">
         <f>+SUM(C41:E41)/COUNT(C41:E41)</f>
-        <v>0.6333333333333333</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="G41" s="6">
         <v>41777</v>
@@ -1384,19 +1384,19 @@
       </c>
       <c r="C42" s="5">
         <f>+SUM(C34:C41)/COUNT(C34:C41)</f>
-        <v>0.52499999999999991</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" ref="D42" si="5">+SUM(D34:D41)/COUNT(D34:D41)</f>
-        <v>0.5</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="E42" s="5">
         <f>+SUM(E34:E41)/COUNT(E34:E41)</f>
-        <v>0.15625</v>
+        <v>0.375</v>
       </c>
       <c r="F42" s="5">
         <f>+SUM(F34:F41)/COUNT(F34:F41)</f>
-        <v>0.39374999999999999</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G42" s="7">
         <f>MIN(G34:G41)</f>
